--- a/biology/Zoologie/Hylarana_erythraea/Hylarana_erythraea.xlsx
+++ b/biology/Zoologie/Hylarana_erythraea/Hylarana_erythraea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylarana erythraea est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylarana erythraea est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Viêt Nam ;
 au Laos ;
 au Cambodge ;
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylarana erythraea mesure au maximum 78 mm pour les femelles et 48 mm pour les mâles, les mâles restant plus petits que les femelles. Son dos varie du vert clair au vert foncé tandis que son ventre est blanchâtre. Les plis dorsaux sont de couleur crème et sont parfois bordés de noir. Les membres sont jaunâtres avec des rayures irrégulières gris foncé. Sa peau est lisse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylarana erythraea mesure au maximum 78 mm pour les femelles et 48 mm pour les mâles, les mâles restant plus petits que les femelles. Son dos varie du vert clair au vert foncé tandis que son ventre est blanchâtre. Les plis dorsaux sont de couleur crème et sont parfois bordés de noir. Les membres sont jaunâtres avec des rayures irrégulières gris foncé. Sa peau est lisse.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schlegel, 1837 : Abbildungen neuer oder unvollständig bekannter Amphibien, nach der Natur oder dem Leben entworfen und mit einem erläuternden Texte begleitet. Arne and Co., Düsseldorf, p. 1-141 (texte intégral).</t>
         </is>
